--- a/va_facility_data_2025-02-20/Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9f14dc70f3464c36b4e6bf7656a26da8"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7239e5577e704ee595ea5b2ea21c391a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R59cc45f6591c4491a823e42f2574516a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re796dd2b5fe2410f9a00df106b29505b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R135b792fe5df4bb1bf400f7eeaa367f2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R025cd1a6841242ae8742b4bf30ceb53e"/>
   </x:sheets>
 </x:workbook>
 </file>
